--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,26 @@
   </si>
   <si>
     <t>关联学生编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,9 +299,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,6 +396,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,6 +448,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -598,325 +653,340 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -396,23 +396,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -448,23 +431,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -620,7 +586,7 @@
   <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_photo_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,256 +705,267 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
         <v>7</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
         <v>52</v>
       </c>
     </row>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,62 @@
   </si>
   <si>
     <t>头像路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,6 +460,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -439,6 +512,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -778,6 +868,28 @@
         <v>32</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
@@ -837,135 +949,179 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>47</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
         <v>41</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
         <v>52</v>
       </c>
     </row>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="241">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因为登录用户起码有：家长、教师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u_create_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教师资料表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家长资料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +306,681 @@
   </si>
   <si>
     <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否教职子弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入校日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离校日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在校学生/待分班/待确认入学/正常就读/已休学/已离校学生/已退学/已毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为登录用户起码有：家长/教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男/女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月数，显示时：月数/12（年）+月数%12（月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:否/1:是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_teacher_children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与家长的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_parent_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_parent_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_parent_relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_into_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_into_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_leave_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip_sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教职工资料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常在校/休假中/已离职/已退休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_wechat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_into_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_leave_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_last_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片管理—学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片管理—教职工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持卡人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发卡人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发卡/未发卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_distributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教职工id（发卡人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教职工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教职工id（持有者）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_distributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id_master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id_distributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pa_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pa_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sg_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sg_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教职工id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>f_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被赞次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forum_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标分享id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈—评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,10 +1030,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,23 +1137,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -512,23 +1172,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,448 +1324,1758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F44"/>
+  <dimension ref="A2:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E65" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E105" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E107" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="111" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="116" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="121" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="127" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>52</v>
+    <row r="135" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -741,194 +741,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>f_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被赞次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forum_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标分享id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈—评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一级部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果为0，则为第一级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss_id_last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教职员工/家长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：上车/下车/上班/下班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为登录用户起码有：家长/教师。1：家长。2教师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在校学生/待分班/待确认入学/正常就读/已休学/已离校学生/已退学/已毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意用户必须为家长类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>forum</t>
-  </si>
-  <si>
-    <t>f_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被赞次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forum_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标分享id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc_create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级圈—评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级圈id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一级部门id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果为0，则为第一级部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varcahr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss_id_last</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>档案id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教职员工/家长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it_section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cl_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cl_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cl_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如：上车/下车/上班/下班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为登录用户起码有：家长/教师。1：家长。2教师。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在校学生/待分班/待确认入学/正常就读/已休学/已离校学生/已退学/已毕业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意用户必须为家长类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,16 +1418,16 @@
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1668,7 +1669,7 @@
         <v>84</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,7 +1683,7 @@
         <v>85</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1927,7 +1928,7 @@
     </row>
     <row r="57" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>65</v>
@@ -2029,7 +2030,7 @@
     </row>
     <row r="68" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>0</v>
@@ -2049,10 +2050,10 @@
     </row>
     <row r="69" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>65</v>
@@ -2066,7 +2067,7 @@
     </row>
     <row r="70" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>65</v>
@@ -2080,7 +2081,7 @@
     </row>
     <row r="71" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>65</v>
@@ -2091,7 +2092,7 @@
     </row>
     <row r="72" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>65</v>
@@ -2102,7 +2103,7 @@
     </row>
     <row r="73" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>131</v>
@@ -2113,7 +2114,7 @@
     </row>
     <row r="74" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>65</v>
@@ -2128,7 +2129,7 @@
     <row r="76" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>0</v>
@@ -2148,10 +2149,10 @@
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
@@ -2165,18 +2166,18 @@
     </row>
     <row r="79" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
@@ -2187,7 +2188,7 @@
     </row>
     <row r="81" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>6</v>
@@ -2196,18 +2197,18 @@
         <v>36</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2639,21 +2640,21 @@
     </row>
     <row r="126" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>0</v>
@@ -2673,10 +2674,10 @@
     </row>
     <row r="130" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>65</v>
@@ -2690,35 +2691,35 @@
     </row>
     <row r="131" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2729,7 +2730,7 @@
         <v>65</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>152</v>
@@ -2737,7 +2738,7 @@
     </row>
     <row r="136" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>0</v>
@@ -2757,10 +2758,10 @@
     </row>
     <row r="137" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>65</v>
@@ -2774,24 +2775,24 @@
     </row>
     <row r="138" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2799,24 +2800,24 @@
         <v>154</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="263">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,6 +930,144 @@
   </si>
   <si>
     <t>forum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_imgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_creat_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_final_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_istop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_creater_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_role</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0过时不显示，1显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节码文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,6 +1227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1124,6 +1279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1276,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F141"/>
+  <dimension ref="A2:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2820,6 +2992,173 @@
         <v>195</v>
       </c>
     </row>
+    <row r="143" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="287">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,57 +941,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>news_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_imgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_creat_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_final_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_istop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_creater_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news_role</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
   </si>
   <si>
@@ -1068,6 +1017,154 @@
   </si>
   <si>
     <t>字节码文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_imgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_creat_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_final_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_istop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日食谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_creat_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_id_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_id_accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食谱日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食谱说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食谱图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长APP已读的学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长APP拟推送的学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F155"/>
+  <dimension ref="A2:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2610,7 +2707,7 @@
     </row>
     <row r="105" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>65</v>
@@ -3017,146 +3114,293 @@
         <v>229</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D145" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D144" s="1" t="s">
+    </row>
+    <row r="151" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F147" s="1" t="s">
+    </row>
+    <row r="157" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="148" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>261</v>
+      <c r="C158" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="325">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,6 +1165,157 @@
   </si>
   <si>
     <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节课、第二节课的意思，通过数字：1，2,3….表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,6 +1337,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1214,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1230,6 +1387,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,23 +1484,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1376,23 +1519,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1545,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F168"/>
+  <dimension ref="A2:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3315,7 +3441,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>268</v>
       </c>
@@ -3326,7 +3452,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>269</v>
       </c>
@@ -3337,7 +3463,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>270</v>
       </c>
@@ -3348,7 +3474,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>271</v>
       </c>
@@ -3359,7 +3485,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>273</v>
       </c>
@@ -3370,7 +3496,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>276</v>
       </c>
@@ -3381,7 +3507,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>275</v>
       </c>
@@ -3392,7 +3518,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>274</v>
       </c>
@@ -3401,6 +3527,258 @@
       </c>
       <c r="E168" s="1" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="346">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1316,6 +1316,90 @@
   </si>
   <si>
     <t>course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP端家长用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假条产生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:头条，1:置顶新闻，2:普通新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_resp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任批复是否准假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,6 +1568,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1519,6 +1620,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1671,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F196"/>
+  <dimension ref="A2:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3356,6 +3474,9 @@
       <c r="E153" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="F153" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
@@ -3728,7 +3849,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>315</v>
       </c>
@@ -3742,7 +3863,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>316</v>
       </c>
@@ -3756,7 +3877,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>317</v>
       </c>
@@ -3767,7 +3888,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>320</v>
       </c>
@@ -3779,6 +3900,120 @@
       </c>
       <c r="F196" s="1" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="352">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1195,23 +1195,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一节课、第二节课的意思，通过数字：1，2,3….表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7：星期1，星期2，星期3.。。。星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>课程表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第几节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>c_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目编号</t>
+    <t>sc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1219,115 +1383,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一节课、第二节课的意思，通过数字：1，2,3….表示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如：9:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如：10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timetables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vacate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_id</t>
+    <t>请假学生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1335,63 +1391,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主键，非空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APP端家长用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v_content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>请假原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>v_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请假条产生时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:头条，1:置顶新闻，2:普通新闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1407,7 +1431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,12 +1445,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1455,7 +1473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1471,9 +1489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F209"/>
+  <dimension ref="A2:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3474,9 +3489,6 @@
       <c r="E153" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
@@ -3700,40 +3712,40 @@
     </row>
     <row r="175" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>0</v>
@@ -3753,10 +3765,10 @@
     </row>
     <row r="182" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>290</v>
@@ -3770,250 +3782,253 @@
     </row>
     <row r="183" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>8</v>
+        <v>307</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="B189" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>146</v>
+        <v>311</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="F193" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="F194" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="E195" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>312</v>
+    </row>
+    <row r="198" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>8</v>
+      <c r="B201" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="B202" s="1" t="s">
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>330</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="367">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1424,6 +1424,66 @@
   </si>
   <si>
     <t>班主任批复是否准假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字执照表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>licence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_licence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_date_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_date_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1583,23 +1643,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1635,23 +1678,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1804,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F206"/>
+  <dimension ref="A2:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4031,6 +4057,87 @@
         <v>351</v>
       </c>
     </row>
+    <row r="209" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -1588,23 +1588,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1640,23 +1623,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1812,7 +1778,7 @@
   <dimension ref="A2:F204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="355">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1432,6 +1432,10 @@
   </si>
   <si>
     <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,6 +1592,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1623,6 +1644,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1777,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3276,7 +3314,7 @@
         <v>217</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>195</v>
+        <v>354</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>203</v>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="383">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,6 +1436,118 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person_inform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人客户端通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_inform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_inform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1443,7 +1555,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,6 +1569,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1485,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1499,6 +1617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1813,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F204"/>
+  <dimension ref="A2:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4022,6 +4141,241 @@
         <v>331</v>
       </c>
     </row>
+    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="5"/>
+    </row>
+    <row r="208" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="399">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1548,6 +1548,70 @@
   </si>
   <si>
     <t>ai_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环信—群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hx_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组id，同环信群组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群主id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统默认创建会以班主任为群主，但其他人也可以自己建群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用于判断是哪一学期的群，可用于系统自动建群的判断规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1932,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F228"/>
+  <dimension ref="A2:F237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E226" sqref="E226"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4141,238 +4205,314 @@
         <v>331</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5"/>
+    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="208" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>300</v>
+        <v>384</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="B209" s="1" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>357</v>
+        <v>394</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>300</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="5"/>
     </row>
     <row r="217" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="B218" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D218" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E218" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B224" s="2" t="s">
+    <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="F225" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="B226" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D226" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E226" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>374</v>
       </c>
     </row>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="401">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,6 +1612,14 @@
   </si>
   <si>
     <t>可用于判断是哪一学期的群，可用于系统自动建群的判断规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1775,23 +1783,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1827,23 +1818,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1996,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F237"/>
+  <dimension ref="A2:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4244,275 +4218,286 @@
     </row>
     <row r="209" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="F212" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5"/>
+    <row r="215" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="5"/>
+    </row>
+    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="217" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>300</v>
+        <v>358</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="B218" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E218" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E222" s="1" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>300</v>
+        <v>368</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="B226" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E226" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E230" s="1" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>300</v>
+        <v>377</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="B234" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E237" s="1" t="s">
         <v>374</v>
       </c>
     </row>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="408">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,6 +1612,42 @@
   </si>
   <si>
     <t>可用于判断是哪一学期的群，可用于系统自动建群的判断规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1996,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F237"/>
+  <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4323,196 +4359,251 @@
     </row>
     <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>355</v>
+        <v>54</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D227" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E227" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>355</v>
+        <v>54</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>355</v>
+        <v>54</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+    <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D236" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E236" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="F236" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D237" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E237" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>374</v>
       </c>
     </row>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="404">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1620,6 +1620,18 @@
   </si>
   <si>
     <t>群组名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是用作是否是系统创建的标志。native系统创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1970,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F236"/>
+  <dimension ref="A2:F237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I213" sqref="I213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4266,238 +4278,252 @@
         <v>398</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="5"/>
-    </row>
-    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>300</v>
-      </c>
+    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="5"/>
     </row>
     <row r="217" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D218" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E218" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D226" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E226" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D234" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E234" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E236" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>374</v>
       </c>
     </row>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="419">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1632,6 +1632,66 @@
   </si>
   <si>
     <t>目前是用作是否是系统创建的标志。native系统创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送反馈时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1795,6 +1855,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1830,6 +1907,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1982,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F237"/>
+  <dimension ref="A2:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I213" sqref="I213"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4527,6 +4621,87 @@
         <v>374</v>
       </c>
     </row>
+    <row r="240" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="413">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1632,6 +1632,42 @@
   </si>
   <si>
     <t>目前是用作是否是系统创建的标志。native系统创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_class_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以逗号隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效/无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1639,7 +1675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,6 +1695,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1687,7 +1738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1702,6 +1753,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1982,23 +2039,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F237"/>
+  <dimension ref="A2:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I213" sqref="I213"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2018,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2033,7 +2090,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2061,7 +2118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2072,7 +2129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2086,7 +2143,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2097,7 +2154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -2108,7 +2165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>172</v>
       </c>
@@ -2136,7 +2193,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2156,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2173,7 +2230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2187,7 +2244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2198,7 +2255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -2212,7 +2269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,7 +2280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2237,7 +2294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>85</v>
       </c>
@@ -2251,7 +2308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
@@ -2262,7 +2319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
@@ -2273,7 +2330,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>90</v>
       </c>
@@ -2287,7 +2344,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
@@ -2299,2231 +2356,2273 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="34" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D62" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>117</v>
+        <v>349</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D77" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E77" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D82" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D87" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D93" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D101" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D107" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="111" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="116" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+    <row r="117" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+    <row r="118" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+    <row r="119" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="122" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="123" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
+    <row r="124" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
+    <row r="131" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="136" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="137" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
+    <row r="138" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D138" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="E138" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
+    <row r="142" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
+    <row r="143" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
+    <row r="144" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
+    <row r="148" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="150" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="151" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D151" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="E151" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    <row r="165" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="166" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="D166" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E166" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
+    <row r="170" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    <row r="174" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    <row r="175" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
+    <row r="176" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="180" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="181" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="D181" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="E181" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
+    <row r="185" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="191" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="F191" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="192" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
+    <row r="193" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
+    <row r="194" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="1" t="s">
+    <row r="195" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="1" t="s">
+    <row r="199" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="202" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F202" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+    <row r="203" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="1" t="s">
+    <row r="204" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="1" t="s">
+    <row r="205" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="1" t="s">
+    <row r="206" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
+    <row r="207" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+    <row r="210" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+    <row r="211" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>386</v>
       </c>
+      <c r="D211" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E211" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
+    <row r="215" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
+    <row r="216" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F216" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5"/>
-    </row>
-    <row r="217" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+    <row r="219" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="5"/>
+    </row>
+    <row r="220" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E220" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="F220" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+    <row r="221" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D221" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E221" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+    <row r="228" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D228" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E228" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F225" s="2" t="s">
+      <c r="F228" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="229" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D229" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E229" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+    <row r="236" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D236" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E236" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="F236" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="237" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D237" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E237" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>374</v>
       </c>
     </row>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="413">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,63 +1635,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键，非空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送反馈时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_id</t>
+    <t>is_class_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以逗号隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效/无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1699,7 +1675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1719,6 +1695,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1747,7 +1738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1762,6 +1753,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1855,23 +1852,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1907,23 +1887,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2076,23 +2039,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F245"/>
+  <dimension ref="A2:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2127,7 +2090,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2166,7 +2129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2180,7 +2143,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2191,7 +2154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -2202,7 +2165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,7 +2179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>172</v>
       </c>
@@ -2230,7 +2193,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2267,7 +2230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2281,7 +2244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2292,7 +2255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -2306,7 +2269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,7 +2280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2331,7 +2294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>85</v>
       </c>
@@ -2345,7 +2308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
@@ -2356,7 +2319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
@@ -2367,7 +2330,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>90</v>
       </c>
@@ -2381,7 +2344,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
@@ -2393,2313 +2356,2274 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="34" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D62" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>117</v>
+        <v>349</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D77" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E77" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D82" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D87" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D93" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D101" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D107" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="111" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="116" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+    <row r="117" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+    <row r="118" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+    <row r="119" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="122" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="123" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
+    <row r="124" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
+    <row r="131" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="136" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="137" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
+    <row r="138" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D138" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="E138" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
+    <row r="142" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
+    <row r="143" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
+    <row r="144" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
+    <row r="148" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="150" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="151" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D151" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="E151" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    <row r="165" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="166" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="D166" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E166" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
+    <row r="170" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    <row r="174" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    <row r="175" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
+    <row r="176" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="180" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="181" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="D181" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="E181" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
+    <row r="185" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="191" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="F191" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="192" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
+    <row r="193" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
+    <row r="194" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="1" t="s">
+    <row r="195" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="1" t="s">
+    <row r="199" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="202" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F202" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+    <row r="203" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="1" t="s">
+    <row r="204" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="1" t="s">
+    <row r="205" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="1" t="s">
+    <row r="206" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
+    <row r="207" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+    <row r="210" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+    <row r="211" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>386</v>
       </c>
+      <c r="D211" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E211" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
+    <row r="215" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
+    <row r="216" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F216" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5"/>
-    </row>
-    <row r="217" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+    <row r="219" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="5"/>
+    </row>
+    <row r="220" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E220" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="F220" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+    <row r="221" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D221" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E221" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+    <row r="228" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D228" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E228" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F225" s="2" t="s">
+      <c r="F228" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="229" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D229" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E229" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+    <row r="236" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D236" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E236" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="F236" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="237" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D237" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E237" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="4995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17328" windowHeight="5976"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="433">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1668,6 +1668,86 @@
   </si>
   <si>
     <t>有效/无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送反馈时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,23 +2119,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F240"/>
+  <dimension ref="A2:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2090,7 +2170,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2118,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2129,7 +2209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2223,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +2234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -2165,7 +2245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +2259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>172</v>
       </c>
@@ -2193,7 +2273,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2213,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2244,7 +2324,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2255,7 +2335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -2269,7 +2349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2280,7 +2360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2294,7 +2374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>85</v>
       </c>
@@ -2308,7 +2388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
@@ -2319,7 +2399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
@@ -2330,7 +2410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>90</v>
       </c>
@@ -2344,7 +2424,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
@@ -2356,7 +2436,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>404</v>
       </c>
@@ -2370,14 +2450,14 @@
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>332</v>
       </c>
@@ -2397,7 +2477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>333</v>
       </c>
@@ -2415,7 +2495,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>338</v>
       </c>
@@ -2427,7 +2507,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>340</v>
       </c>
@@ -2439,7 +2519,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>343</v>
       </c>
@@ -2453,10 +2533,10 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -2493,7 +2573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2504,7 +2584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
@@ -2515,7 +2595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>351</v>
       </c>
@@ -2526,7 +2606,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
@@ -2537,7 +2617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
@@ -2548,7 +2628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
@@ -2568,7 +2648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
@@ -2599,7 +2679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
@@ -2610,7 +2690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>110</v>
       </c>
@@ -2621,7 +2701,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>111</v>
       </c>
@@ -2632,7 +2712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2643,7 +2723,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>112</v>
       </c>
@@ -2654,7 +2734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>113</v>
       </c>
@@ -2665,7 +2745,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>114</v>
       </c>
@@ -2676,7 +2756,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>115</v>
       </c>
@@ -2690,7 +2770,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2701,7 +2781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>148</v>
       </c>
@@ -2712,7 +2792,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
@@ -2732,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -2749,7 +2829,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>348</v>
       </c>
@@ -2766,7 +2846,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>346</v>
       </c>
@@ -2780,7 +2860,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>178</v>
       </c>
@@ -2791,7 +2871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>188</v>
       </c>
@@ -2802,7 +2882,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>189</v>
       </c>
@@ -2816,7 +2896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>180</v>
       </c>
@@ -2836,7 +2916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>179</v>
       </c>
@@ -2853,7 +2933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>187</v>
       </c>
@@ -2864,7 +2944,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>182</v>
       </c>
@@ -2875,7 +2955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>183</v>
       </c>
@@ -2889,7 +2969,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
@@ -2909,7 +2989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2926,7 +3006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>129</v>
       </c>
@@ -2937,7 +3017,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>66</v>
       </c>
@@ -2957,7 +3037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>126</v>
       </c>
@@ -2974,7 +3054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>131</v>
       </c>
@@ -2985,7 +3065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>128</v>
       </c>
@@ -2996,7 +3076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>68</v>
       </c>
@@ -3016,7 +3096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>127</v>
       </c>
@@ -3033,7 +3113,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>133</v>
       </c>
@@ -3044,7 +3124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>130</v>
       </c>
@@ -3055,7 +3135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -3075,7 +3155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -3092,7 +3172,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>136</v>
       </c>
@@ -3103,7 +3183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>137</v>
       </c>
@@ -3114,7 +3194,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>132</v>
       </c>
@@ -3125,7 +3205,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>75</v>
       </c>
@@ -3145,7 +3225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>93</v>
       </c>
@@ -3162,7 +3242,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>141</v>
       </c>
@@ -3173,7 +3253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>135</v>
       </c>
@@ -3184,7 +3264,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>86</v>
       </c>
@@ -3204,7 +3284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>94</v>
       </c>
@@ -3221,7 +3301,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>142</v>
       </c>
@@ -3232,7 +3312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>139</v>
       </c>
@@ -3243,7 +3323,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>125</v>
       </c>
@@ -3257,7 +3337,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>407</v>
       </c>
@@ -3270,7 +3350,7 @@
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
         <v>410</v>
       </c>
@@ -3285,7 +3365,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>146</v>
       </c>
@@ -3305,7 +3385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>147</v>
       </c>
@@ -3322,7 +3402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>149</v>
       </c>
@@ -3333,7 +3413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>135</v>
       </c>
@@ -3344,7 +3424,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>169</v>
       </c>
@@ -3358,7 +3438,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>163</v>
       </c>
@@ -3378,7 +3458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>192</v>
       </c>
@@ -3395,7 +3475,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>155</v>
       </c>
@@ -3406,7 +3486,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>156</v>
       </c>
@@ -3417,7 +3497,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>157</v>
       </c>
@@ -3428,7 +3508,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>124</v>
       </c>
@@ -3442,7 +3522,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>164</v>
       </c>
@@ -3462,7 +3542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>158</v>
       </c>
@@ -3479,7 +3559,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>161</v>
       </c>
@@ -3490,7 +3570,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>162</v>
       </c>
@@ -3501,7 +3581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>124</v>
       </c>
@@ -3512,7 +3592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>150</v>
       </c>
@@ -3526,7 +3606,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
@@ -3546,7 +3626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -3563,7 +3643,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>216</v>
       </c>
@@ -3577,7 +3657,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>217</v>
       </c>
@@ -3588,7 +3668,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>218</v>
       </c>
@@ -3602,7 +3682,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>219</v>
       </c>
@@ -3613,7 +3693,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>220</v>
       </c>
@@ -3624,7 +3704,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>221</v>
       </c>
@@ -3635,7 +3715,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>222</v>
       </c>
@@ -3646,7 +3726,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>223</v>
       </c>
@@ -3657,7 +3737,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>224</v>
       </c>
@@ -3668,7 +3748,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>43</v>
       </c>
@@ -3679,7 +3759,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>237</v>
       </c>
@@ -3693,7 +3773,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>225</v>
       </c>
@@ -3713,7 +3793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>226</v>
       </c>
@@ -3730,7 +3810,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>228</v>
       </c>
@@ -3741,7 +3821,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>232</v>
       </c>
@@ -3752,7 +3832,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>233</v>
       </c>
@@ -3763,7 +3843,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>234</v>
       </c>
@@ -3774,7 +3854,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>235</v>
       </c>
@@ -3785,7 +3865,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>236</v>
       </c>
@@ -3796,7 +3876,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>238</v>
       </c>
@@ -3807,7 +3887,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>241</v>
       </c>
@@ -3818,7 +3898,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>240</v>
       </c>
@@ -3829,7 +3909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>239</v>
       </c>
@@ -3840,7 +3920,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>253</v>
       </c>
@@ -3860,7 +3940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>252</v>
       </c>
@@ -3877,7 +3957,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>256</v>
       </c>
@@ -3888,7 +3968,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>259</v>
       </c>
@@ -3899,7 +3979,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>263</v>
       </c>
@@ -3910,7 +3990,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>265</v>
       </c>
@@ -3921,7 +4001,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>268</v>
       </c>
@@ -3941,7 +4021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>273</v>
       </c>
@@ -3958,7 +4038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>260</v>
       </c>
@@ -3969,7 +4049,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>278</v>
       </c>
@@ -3989,7 +4069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>272</v>
       </c>
@@ -4006,7 +4086,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>274</v>
       </c>
@@ -4020,7 +4100,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>289</v>
       </c>
@@ -4034,7 +4114,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>290</v>
       </c>
@@ -4045,7 +4125,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>295</v>
       </c>
@@ -4056,7 +4136,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>292</v>
       </c>
@@ -4070,7 +4150,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>294</v>
       </c>
@@ -4084,7 +4164,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>291</v>
       </c>
@@ -4095,7 +4175,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>296</v>
       </c>
@@ -4115,7 +4195,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>301</v>
       </c>
@@ -4132,7 +4212,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>305</v>
       </c>
@@ -4143,7 +4223,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>124</v>
       </c>
@@ -4154,7 +4234,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>125</v>
       </c>
@@ -4165,7 +4245,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>309</v>
       </c>
@@ -4176,7 +4256,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>311</v>
       </c>
@@ -4187,7 +4267,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>313</v>
       </c>
@@ -4198,7 +4278,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>315</v>
       </c>
@@ -4209,7 +4289,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>317</v>
       </c>
@@ -4229,7 +4309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>318</v>
       </c>
@@ -4246,7 +4326,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>320</v>
       </c>
@@ -4257,7 +4337,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>321</v>
       </c>
@@ -4268,7 +4348,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>322</v>
       </c>
@@ -4279,7 +4359,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>323</v>
       </c>
@@ -4290,7 +4370,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>383</v>
       </c>
@@ -4310,7 +4390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>384</v>
       </c>
@@ -4327,7 +4407,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>399</v>
       </c>
@@ -4338,7 +4418,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>389</v>
       </c>
@@ -4352,7 +4432,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>390</v>
       </c>
@@ -4363,7 +4443,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
@@ -4377,7 +4457,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>401</v>
       </c>
@@ -4391,10 +4471,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
     </row>
-    <row r="220" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>362</v>
       </c>
@@ -4414,7 +4494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>358</v>
       </c>
@@ -4431,7 +4511,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>360</v>
       </c>
@@ -4442,7 +4522,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>363</v>
       </c>
@@ -4453,7 +4533,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>365</v>
       </c>
@@ -4464,7 +4544,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>373</v>
       </c>
@@ -4475,7 +4555,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>367</v>
       </c>
@@ -4495,7 +4575,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>368</v>
       </c>
@@ -4512,7 +4592,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>370</v>
       </c>
@@ -4523,7 +4603,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>371</v>
       </c>
@@ -4534,7 +4614,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>372</v>
       </c>
@@ -4545,7 +4625,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>375</v>
       </c>
@@ -4556,7 +4636,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>378</v>
       </c>
@@ -4576,7 +4656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>377</v>
       </c>
@@ -4593,7 +4673,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>380</v>
       </c>
@@ -4604,7 +4684,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>381</v>
       </c>
@@ -4615,7 +4695,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>382</v>
       </c>
@@ -4624,6 +4704,87 @@
       </c>
       <c r="E240" s="1" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="445">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1748,6 +1748,54 @@
   </si>
   <si>
     <t>反馈状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_no_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2119,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F248"/>
+  <dimension ref="A2:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D249" sqref="D249"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4787,6 +4835,73 @@
         <v>432</v>
       </c>
     </row>
+    <row r="251" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17328" windowHeight="5976"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="449">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1796,6 +1796,22 @@
   </si>
   <si>
     <t>失效时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码会在10分钟后失效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1980,6 +1996,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2015,6 +2048,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2167,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F255"/>
+  <dimension ref="A2:F256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+      <selection activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4871,35 +4921,49 @@
     </row>
     <row r="253" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>441</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>444</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17328" windowHeight="5976"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="465">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1812,6 +1812,70 @@
   </si>
   <si>
     <t>验证码会在10分钟后失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级圈—点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forum_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_images_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1996,23 +2060,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2048,23 +2095,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2217,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F256"/>
+  <dimension ref="A2:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F260" sqref="F260"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3706,7 +3736,7 @@
     </row>
     <row r="136" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>193</v>
+        <v>449</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>0</v>
@@ -3726,936 +3756,925 @@
     </row>
     <row r="137" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>194</v>
+        <v>450</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>44</v>
+        <v>454</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>199</v>
+        <v>455</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>201</v>
+        <v>456</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>216</v>
+        <v>452</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>202</v>
+        <v>457</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>217</v>
+        <v>453</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>207</v>
+      <c r="A143" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B144" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>196</v>
+        <v>44</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>8</v>
+      <c r="B150" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="B151" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>245</v>
+        <v>212</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>246</v>
+      <c r="A157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="B158" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D158" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="E158" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>8</v>
+      <c r="B165" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="B166" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>256</v>
+        <v>459</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>257</v>
+        <v>454</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>258</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>8</v>
+        <v>252</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="B175" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B180" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="F182" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
     <row r="183" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="B183" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>308</v>
+        <v>280</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>144</v>
+        <v>281</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C198" s="1" t="s">
+      <c r="E202" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>324</v>
+        <v>170</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>325</v>
+        <v>170</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>3</v>
+        <v>299</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>399</v>
+        <v>320</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>400</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="5"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>300</v>
+      <c r="B220" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="B221" s="1" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>357</v>
+        <v>394</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>364</v>
+        <v>397</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>355</v>
+        <v>6</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>374</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="5"/>
     </row>
     <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>297</v>
@@ -4673,12 +4692,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>355</v>
@@ -4690,279 +4709,393 @@
         <v>357</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>370</v>
+        <v>461</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>355</v>
+        <v>6</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>361</v>
+        <v>462</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E233" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>357</v>
+        <v>367</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="B238" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="D238" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E238" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>355</v>
+        <v>6</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E240" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
     <row r="246" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>428</v>
+      <c r="A246" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="B247" s="1" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>425</v>
+        <v>355</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>430</v>
+        <v>357</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>425</v>
+        <v>6</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>432</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>447</v>
+      <c r="B251" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>438</v>
+      <c r="A254" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="B255" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>441</v>
+        <v>421</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>448</v>
       </c>
     </row>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="467">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1876,6 +1876,14 @@
   </si>
   <si>
     <t>ai_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认入学、正常就读、已休学、已退学、已毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版状态：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2247,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F267"/>
+  <dimension ref="A2:N267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2452,7 +2460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2463,7 +2471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -2477,7 +2485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2488,7 +2496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>85</v>
       </c>
@@ -2516,7 +2524,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
@@ -2527,7 +2535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
@@ -2537,8 +2545,11 @@
       <c r="E23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>90</v>
       </c>
@@ -2548,11 +2559,18 @@
       <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
@@ -2564,7 +2582,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>404</v>
       </c>
@@ -2578,14 +2596,14 @@
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>332</v>
       </c>
@@ -2605,7 +2623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>333</v>
       </c>
@@ -2623,7 +2641,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>338</v>
       </c>
@@ -2635,7 +2653,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>340</v>
       </c>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17328" windowHeight="5976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17325" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="495">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1884,6 +1884,118 @@
   </si>
   <si>
     <t>新版状态：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ur_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应权限种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ur_child_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id与id之间使用逗号隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限组描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限组对应权限明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应权限明细表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应权限组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2255,23 +2367,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N267"/>
+  <dimension ref="A2:N291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E279" sqref="E279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2291,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2306,7 +2418,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2323,7 +2435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2345,7 +2457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2359,7 +2471,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2370,7 +2482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,7 +2493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +2507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>172</v>
       </c>
@@ -2409,2712 +2521,2943 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>404</v>
+        <v>78</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D63" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>117</v>
+        <v>349</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D78" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E78" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D83" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D88" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D94" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D102" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D108" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E108" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
+    <row r="112" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D117" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D124" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E124" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="D138" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="E138" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>454</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="1" t="s">
+    <row r="154" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
+    <row r="156" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="158" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D159" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="E159" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
+    <row r="169" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    <row r="174" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="1" t="s">
+    <row r="176" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="1" t="s">
+    <row r="177" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="1" t="s">
+    <row r="179" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="D184" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E184" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
+    <row r="191" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="1" t="s">
+    <row r="193" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
+    <row r="195" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="1" t="s">
+    <row r="197" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="200" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D200" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E200" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F200" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+    <row r="201" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="1" t="s">
+    <row r="202" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="1" t="s">
+    <row r="203" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="1" t="s">
+    <row r="206" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="1" t="s">
+    <row r="207" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="1" t="s">
+    <row r="208" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E211" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="F211" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+    <row r="212" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="D212" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="E212" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="1" t="s">
+    <row r="215" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+    <row r="219" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E219" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F218" s="2" t="s">
+      <c r="F219" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+    <row r="220" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
+    <row r="221" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
+    <row r="222" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="1" t="s">
+    <row r="223" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="1" t="s">
+    <row r="224" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F224" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="1" t="s">
+    <row r="225" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="F225" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="5"/>
-    </row>
-    <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+    <row r="228" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="5"/>
+    </row>
+    <row r="229" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D229" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F228" s="2" t="s">
+      <c r="F229" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="1" t="s">
+    <row r="231" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="1" t="s">
+    <row r="232" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+    <row r="238" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E238" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F237" s="2" t="s">
+      <c r="F238" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+    <row r="239" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="1" t="s">
+    <row r="240" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="1" t="s">
+    <row r="241" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+    <row r="247" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F246" s="2" t="s">
+      <c r="F247" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+    <row r="248" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="1" t="s">
+    <row r="249" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="1" t="s">
+    <row r="250" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E251" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+    <row r="255" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D255" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E255" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F254" s="2" t="s">
+      <c r="F255" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+    <row r="256" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="1" t="s">
+    <row r="257" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>425</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>425</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>425</v>
       </c>
       <c r="E259" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D263" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E263" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F262" s="2" t="s">
+      <c r="F263" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="1" t="s">
+    <row r="265" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="1" t="s">
+    <row r="266" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="1" t="s">
+    <row r="267" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>441</v>
       </c>
       <c r="E267" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B285" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B290" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17325" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17328" windowHeight="5976"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="504">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1887,18 +1887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ur_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应权限种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1907,22 +1895,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ur_child_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id与id之间使用逗号隔开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>r_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1935,14 +1911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限明细表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1955,22 +1923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限组描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限组对应权限明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rp_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1983,19 +1935,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自增列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对应权限明细表id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应权限组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头id</t>
+    <t>比如：0；0,1；0,1,2；0,2,1等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定：最大为0，不含自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限控制相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父角色id集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_parent_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_role_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2003,7 +2039,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,6 +2075,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2054,7 +2116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2062,11 +2124,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2085,6 +2227,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2367,23 +2548,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N291"/>
+  <dimension ref="A2:N295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E279" sqref="E279"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +2584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2418,7 +2599,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2435,7 +2616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2446,7 +2627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2457,7 +2638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2471,7 +2652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2482,7 +2663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -2493,7 +2674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,7 +2688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>172</v>
       </c>
@@ -2521,19 +2702,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2553,7 +2734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2570,7 +2751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2584,7 +2765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2595,7 +2776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>81</v>
       </c>
@@ -2609,7 +2790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,7 +2801,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
@@ -2634,7 +2815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>85</v>
       </c>
@@ -2648,7 +2829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
@@ -2659,7 +2840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
@@ -2673,7 +2854,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>90</v>
       </c>
@@ -2694,7 +2875,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>95</v>
       </c>
@@ -2706,7 +2887,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>404</v>
       </c>
@@ -2720,14 +2901,14 @@
         <v>406</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>332</v>
       </c>
@@ -2747,7 +2928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>333</v>
       </c>
@@ -2765,7 +2946,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>338</v>
       </c>
@@ -2777,7 +2958,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>340</v>
       </c>
@@ -2789,7 +2970,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>343</v>
       </c>
@@ -2803,10 +2984,10 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -2826,7 +3007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -2843,7 +3024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2854,7 +3035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
@@ -2865,7 +3046,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>351</v>
       </c>
@@ -2876,7 +3057,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2887,7 +3068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
@@ -2898,7 +3079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -2918,7 +3099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -2935,7 +3116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>109</v>
       </c>
@@ -2949,7 +3130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2960,7 +3141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>110</v>
       </c>
@@ -2971,7 +3152,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>111</v>
       </c>
@@ -2982,7 +3163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>59</v>
       </c>
@@ -2993,7 +3174,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>112</v>
       </c>
@@ -3004,7 +3185,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>113</v>
       </c>
@@ -3015,7 +3196,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>114</v>
       </c>
@@ -3026,7 +3207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>115</v>
       </c>
@@ -3040,7 +3221,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
@@ -3051,7 +3232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>148</v>
       </c>
@@ -3062,7 +3243,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -3082,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>176</v>
       </c>
@@ -3099,7 +3280,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>348</v>
       </c>
@@ -3116,7 +3297,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>346</v>
       </c>
@@ -3130,7 +3311,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>178</v>
       </c>
@@ -3141,7 +3322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>188</v>
       </c>
@@ -3152,7 +3333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>189</v>
       </c>
@@ -3166,7 +3347,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>180</v>
       </c>
@@ -3186,7 +3367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>179</v>
       </c>
@@ -3203,7 +3384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>187</v>
       </c>
@@ -3214,7 +3395,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>182</v>
       </c>
@@ -3225,7 +3406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>183</v>
       </c>
@@ -3239,7 +3420,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
@@ -3259,7 +3440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
@@ -3276,7 +3457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>129</v>
       </c>
@@ -3287,7 +3468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>66</v>
       </c>
@@ -3307,7 +3488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>126</v>
       </c>
@@ -3324,7 +3505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>131</v>
       </c>
@@ -3335,7 +3516,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>128</v>
       </c>
@@ -3346,7 +3527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>68</v>
       </c>
@@ -3366,7 +3547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>127</v>
       </c>
@@ -3383,7 +3564,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>133</v>
       </c>
@@ -3394,7 +3575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>130</v>
       </c>
@@ -3405,7 +3586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -3425,7 +3606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -3442,7 +3623,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>136</v>
       </c>
@@ -3453,7 +3634,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>137</v>
       </c>
@@ -3464,7 +3645,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>132</v>
       </c>
@@ -3475,7 +3656,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>75</v>
       </c>
@@ -3495,7 +3676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>93</v>
       </c>
@@ -3512,7 +3693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>141</v>
       </c>
@@ -3523,7 +3704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>135</v>
       </c>
@@ -3534,7 +3715,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>86</v>
       </c>
@@ -3554,7 +3735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>94</v>
       </c>
@@ -3571,7 +3752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>142</v>
       </c>
@@ -3582,7 +3763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>139</v>
       </c>
@@ -3593,7 +3774,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>125</v>
       </c>
@@ -3607,7 +3788,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
         <v>407</v>
       </c>
@@ -3620,7 +3801,7 @@
       </c>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
         <v>410</v>
       </c>
@@ -3635,7 +3816,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>146</v>
       </c>
@@ -3655,7 +3836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>147</v>
       </c>
@@ -3672,7 +3853,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>149</v>
       </c>
@@ -3683,7 +3864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>135</v>
       </c>
@@ -3694,7 +3875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>169</v>
       </c>
@@ -3708,7 +3889,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>163</v>
       </c>
@@ -3728,7 +3909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>192</v>
       </c>
@@ -3745,7 +3926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>155</v>
       </c>
@@ -3756,7 +3937,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>156</v>
       </c>
@@ -3767,7 +3948,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>157</v>
       </c>
@@ -3778,7 +3959,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>124</v>
       </c>
@@ -3792,7 +3973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>164</v>
       </c>
@@ -3812,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>158</v>
       </c>
@@ -3829,7 +4010,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>161</v>
       </c>
@@ -3840,7 +4021,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>162</v>
       </c>
@@ -3851,7 +4032,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>124</v>
       </c>
@@ -3862,7 +4043,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>150</v>
       </c>
@@ -3876,7 +4057,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>449</v>
       </c>
@@ -3896,7 +4077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>450</v>
       </c>
@@ -3913,7 +4094,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>452</v>
       </c>
@@ -3924,7 +4105,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>453</v>
       </c>
@@ -3935,7 +4116,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>193</v>
       </c>
@@ -3955,7 +4136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>194</v>
       </c>
@@ -3972,7 +4153,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>216</v>
       </c>
@@ -3986,7 +4167,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>217</v>
       </c>
@@ -3997,7 +4178,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>218</v>
       </c>
@@ -4011,7 +4192,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>219</v>
       </c>
@@ -4022,7 +4203,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>220</v>
       </c>
@@ -4033,7 +4214,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>221</v>
       </c>
@@ -4044,7 +4225,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>222</v>
       </c>
@@ -4055,7 +4236,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>223</v>
       </c>
@@ -4066,7 +4247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>224</v>
       </c>
@@ -4077,7 +4258,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>43</v>
       </c>
@@ -4088,7 +4269,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>237</v>
       </c>
@@ -4102,7 +4283,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>225</v>
       </c>
@@ -4122,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>226</v>
       </c>
@@ -4139,7 +4320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>228</v>
       </c>
@@ -4150,7 +4331,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>232</v>
       </c>
@@ -4161,7 +4342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>233</v>
       </c>
@@ -4172,7 +4353,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>234</v>
       </c>
@@ -4183,7 +4364,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>235</v>
       </c>
@@ -4194,7 +4375,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>236</v>
       </c>
@@ -4205,7 +4386,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>238</v>
       </c>
@@ -4216,7 +4397,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>241</v>
       </c>
@@ -4227,7 +4408,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>459</v>
       </c>
@@ -4238,7 +4419,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>240</v>
       </c>
@@ -4249,7 +4430,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>239</v>
       </c>
@@ -4260,7 +4441,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>253</v>
       </c>
@@ -4280,7 +4461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>252</v>
       </c>
@@ -4297,7 +4478,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>256</v>
       </c>
@@ -4308,7 +4489,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>259</v>
       </c>
@@ -4319,7 +4500,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>263</v>
       </c>
@@ -4330,7 +4511,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>265</v>
       </c>
@@ -4341,7 +4522,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>268</v>
       </c>
@@ -4361,7 +4542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>273</v>
       </c>
@@ -4378,7 +4559,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>260</v>
       </c>
@@ -4389,7 +4570,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>278</v>
       </c>
@@ -4409,7 +4590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>272</v>
       </c>
@@ -4426,7 +4607,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>274</v>
       </c>
@@ -4440,7 +4621,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>289</v>
       </c>
@@ -4454,7 +4635,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>290</v>
       </c>
@@ -4465,7 +4646,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>295</v>
       </c>
@@ -4476,7 +4657,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>292</v>
       </c>
@@ -4490,7 +4671,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>294</v>
       </c>
@@ -4504,7 +4685,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>291</v>
       </c>
@@ -4515,7 +4696,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>296</v>
       </c>
@@ -4535,7 +4716,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>301</v>
       </c>
@@ -4552,7 +4733,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>305</v>
       </c>
@@ -4563,7 +4744,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>124</v>
       </c>
@@ -4574,7 +4755,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>125</v>
       </c>
@@ -4585,7 +4766,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>309</v>
       </c>
@@ -4596,7 +4777,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>311</v>
       </c>
@@ -4607,7 +4788,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>313</v>
       </c>
@@ -4618,7 +4799,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>315</v>
       </c>
@@ -4629,7 +4810,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>317</v>
       </c>
@@ -4649,7 +4830,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>318</v>
       </c>
@@ -4666,7 +4847,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>320</v>
       </c>
@@ -4677,7 +4858,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>321</v>
       </c>
@@ -4688,7 +4869,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>322</v>
       </c>
@@ -4699,7 +4880,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>323</v>
       </c>
@@ -4710,7 +4891,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>383</v>
       </c>
@@ -4730,7 +4911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>384</v>
       </c>
@@ -4747,7 +4928,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>399</v>
       </c>
@@ -4758,7 +4939,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>389</v>
       </c>
@@ -4772,7 +4953,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>390</v>
       </c>
@@ -4783,7 +4964,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>391</v>
       </c>
@@ -4797,7 +4978,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>401</v>
       </c>
@@ -4811,10 +4992,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
     </row>
-    <row r="229" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>362</v>
       </c>
@@ -4834,7 +5015,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -4851,7 +5032,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>461</v>
       </c>
@@ -4862,7 +5043,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>360</v>
       </c>
@@ -4873,7 +5054,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>363</v>
       </c>
@@ -4884,7 +5065,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>365</v>
       </c>
@@ -4895,7 +5076,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>373</v>
       </c>
@@ -4906,7 +5087,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>367</v>
       </c>
@@ -4926,7 +5107,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>368</v>
       </c>
@@ -4943,7 +5124,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>463</v>
       </c>
@@ -4954,7 +5135,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>370</v>
       </c>
@@ -4965,7 +5146,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>371</v>
       </c>
@@ -4976,7 +5157,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>372</v>
       </c>
@@ -4987,7 +5168,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>375</v>
       </c>
@@ -4998,7 +5179,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>378</v>
       </c>
@@ -5018,7 +5199,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>377</v>
       </c>
@@ -5035,7 +5216,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>464</v>
       </c>
@@ -5046,7 +5227,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
         <v>380</v>
       </c>
@@ -5057,7 +5238,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
         <v>381</v>
       </c>
@@ -5068,7 +5249,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>382</v>
       </c>
@@ -5079,7 +5260,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>413</v>
       </c>
@@ -5099,7 +5280,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>419</v>
       </c>
@@ -5116,7 +5297,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
         <v>424</v>
       </c>
@@ -5127,7 +5308,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
         <v>427</v>
       </c>
@@ -5138,7 +5319,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
         <v>429</v>
       </c>
@@ -5149,7 +5330,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
         <v>431</v>
       </c>
@@ -5160,7 +5341,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>439</v>
       </c>
@@ -5180,7 +5361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>436</v>
       </c>
@@ -5194,7 +5375,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
         <v>445</v>
       </c>
@@ -5205,7 +5386,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
         <v>437</v>
       </c>
@@ -5216,7 +5397,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
         <v>440</v>
       </c>
@@ -5227,7 +5408,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
         <v>443</v>
       </c>
@@ -5241,224 +5422,347 @@
         <v>448</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
+    <row r="269" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="270" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="12"/>
+    </row>
+    <row r="271" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="13"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="14"/>
+    </row>
+    <row r="272" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="13"/>
+      <c r="B272" s="9"/>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="15"/>
+    </row>
+    <row r="273" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="13"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="15"/>
+    </row>
+    <row r="274" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="13"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="19"/>
+      <c r="J274" s="20"/>
+    </row>
+    <row r="275" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="13"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="15"/>
+    </row>
+    <row r="276" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="13"/>
+      <c r="B276" s="9"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="15"/>
+    </row>
+    <row r="277" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F277" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E278" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F278" s="15"/>
+      <c r="L278" s="7"/>
+    </row>
+    <row r="279" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="13"/>
+      <c r="B279" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D279" s="9"/>
+      <c r="E279" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F279" s="15"/>
+    </row>
+    <row r="280" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="13"/>
+      <c r="B280" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F280" s="15"/>
+    </row>
+    <row r="281" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="13"/>
+      <c r="B281" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="9"/>
+      <c r="E281" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F281" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="G281" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="J281" s="20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="13"/>
+      <c r="B282" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F282" s="15"/>
+      <c r="G282" s="19"/>
+      <c r="J282" s="20"/>
+    </row>
+    <row r="283" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="13"/>
+      <c r="B283" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F283" s="15"/>
+      <c r="G283" s="19"/>
+      <c r="J283" s="20"/>
+    </row>
+    <row r="284" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="13"/>
+      <c r="B284" s="9"/>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="19"/>
+      <c r="J284" s="20"/>
+    </row>
+    <row r="285" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="13"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="9"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="15"/>
+    </row>
+    <row r="286" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F287" s="15"/>
+    </row>
+    <row r="288" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="13"/>
+      <c r="B288" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="C288" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F288" s="15"/>
+    </row>
+    <row r="289" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="15"/>
+    </row>
+    <row r="290" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="13"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="15"/>
+    </row>
+    <row r="291" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B291" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C291" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D291" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E271" s="2" t="s">
+      <c r="E291" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F271" s="2" t="s">
+      <c r="F291" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B272" s="1" t="s">
+    <row r="292" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C292" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D292" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F292" s="15"/>
+    </row>
+    <row r="293" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="13"/>
+      <c r="B293" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="1" t="s">
+      <c r="C293" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="1" t="s">
+      <c r="F293" s="15"/>
+    </row>
+    <row r="294" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="13"/>
+      <c r="B294" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>492</v>
-      </c>
+      <c r="F294" s="15"/>
+    </row>
+    <row r="295" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="16"/>
+      <c r="B295" s="17"/>
+      <c r="C295" s="17"/>
+      <c r="D295" s="17"/>
+      <c r="E295" s="17"/>
+      <c r="F295" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -2551,7 +2551,7 @@
   <dimension ref="A2:N295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -2550,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -2550,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="507">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2032,6 +2032,18 @@
   </si>
   <si>
     <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于判断数据访问范围，暂且定为：超级管理员、学校管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,7 +2051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2096,6 +2108,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2208,7 +2229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2266,6 +2287,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2550,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5604,15 +5637,23 @@
       <c r="G283" s="19"/>
       <c r="J283" s="20"/>
     </row>
-    <row r="284" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="13"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="9"/>
-      <c r="E284" s="9"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="19"/>
-      <c r="J284" s="20"/>
+    <row r="284" spans="1:12" s="7" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="21"/>
+      <c r="B284" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="22"/>
+      <c r="E284" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="F284" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="G284" s="24"/>
+      <c r="J284" s="24"/>
     </row>
     <row r="285" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="13"/>

--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="510">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2043,7 +2043,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于判断数据访问范围，暂且定为：超级管理员、学校管理员</t>
+    <t>用于判断数据访问范围，暂且定为：
+管理员类：超级管理员（不受学校范围限制）、学校管理员（受学校范围限制）
+普通类：普通（一般的职员都应该是这种类型的角色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建这个角色的那个人的学校的id，主要是用于范围限制：只能看自己学校的角色、除非是超级管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2295,11 +2309,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2581,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N295"/>
+  <dimension ref="A2:N293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D299" sqref="D299"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G280" sqref="G280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5468,342 +5482,338 @@
     </row>
     <row r="271" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="13"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="14"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="13"/>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9"/>
-      <c r="E272" s="9"/>
-      <c r="F272" s="15"/>
+      <c r="A272" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F272" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="273" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="9"/>
-      <c r="E273" s="9"/>
+      <c r="A273" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E273" s="9" t="s">
+        <v>489</v>
+      </c>
       <c r="F273" s="15"/>
+      <c r="L273" s="7"/>
     </row>
     <row r="274" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="13"/>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
+      <c r="B274" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="D274" s="9"/>
-      <c r="E274" s="9"/>
+      <c r="E274" s="9" t="s">
+        <v>490</v>
+      </c>
       <c r="F274" s="15"/>
-      <c r="G274" s="19"/>
-      <c r="J274" s="20"/>
     </row>
     <row r="275" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="13"/>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9"/>
+      <c r="B275" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="D275" s="9"/>
-      <c r="E275" s="9"/>
+      <c r="E275" s="9" t="s">
+        <v>491</v>
+      </c>
       <c r="F275" s="15"/>
     </row>
     <row r="276" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="13"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
+      <c r="B276" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D276" s="9"/>
-      <c r="E276" s="9"/>
-      <c r="F276" s="15"/>
+      <c r="E276" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F276" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="G276" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="J276" s="20" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="277" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F277" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A277" s="13"/>
+      <c r="B277" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D277" s="9"/>
+      <c r="E277" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F277" s="15"/>
+      <c r="G277" s="19"/>
+      <c r="J277" s="20"/>
     </row>
     <row r="278" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="13" t="s">
-        <v>495</v>
-      </c>
+      <c r="A278" s="13"/>
       <c r="B278" s="9" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>468</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D278" s="9"/>
       <c r="E278" s="9" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="F278" s="15"/>
-      <c r="L278" s="7"/>
-    </row>
-    <row r="279" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="13"/>
-      <c r="B279" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C279" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D279" s="9"/>
-      <c r="E279" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="F279" s="15"/>
-    </row>
-    <row r="280" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="13"/>
-      <c r="B280" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D280" s="9"/>
-      <c r="E280" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="F280" s="15"/>
-    </row>
-    <row r="281" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="13"/>
-      <c r="B281" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="C281" s="9" t="s">
+      <c r="G278" s="19"/>
+      <c r="J278" s="20"/>
+    </row>
+    <row r="279" spans="1:12" s="7" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A279" s="21"/>
+      <c r="B279" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C279" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D281" s="9"/>
-      <c r="E281" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="F281" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="G281" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="J281" s="20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="13"/>
-      <c r="B282" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="D282" s="9"/>
-      <c r="E282" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="F282" s="15"/>
-      <c r="G282" s="19"/>
-      <c r="J282" s="20"/>
+      <c r="D279" s="22"/>
+      <c r="E279" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="F279" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="G279" s="23"/>
+      <c r="J279" s="23"/>
+    </row>
+    <row r="280" spans="1:12" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A280" s="21"/>
+      <c r="B280" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" s="22"/>
+      <c r="E280" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="F280" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="G280" s="23"/>
+      <c r="J280" s="23"/>
+    </row>
+    <row r="281" spans="1:12" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A281" s="21"/>
+      <c r="B281" s="22"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="24"/>
+      <c r="G281" s="23"/>
+      <c r="J281" s="23"/>
+    </row>
+    <row r="282" spans="1:12" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A282" s="21"/>
+      <c r="B282" s="22"/>
+      <c r="C282" s="22"/>
+      <c r="D282" s="22"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="24"/>
+      <c r="G282" s="23"/>
+      <c r="J282" s="23"/>
     </row>
     <row r="283" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="13"/>
-      <c r="B283" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B283" s="9"/>
+      <c r="C283" s="9"/>
       <c r="D283" s="9"/>
-      <c r="E283" s="9" t="s">
-        <v>502</v>
-      </c>
+      <c r="E283" s="9"/>
       <c r="F283" s="15"/>
-      <c r="G283" s="19"/>
-      <c r="J283" s="20"/>
-    </row>
-    <row r="284" spans="1:12" s="7" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="21"/>
-      <c r="B284" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C284" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284" s="22"/>
-      <c r="E284" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="F284" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="G284" s="24"/>
-      <c r="J284" s="24"/>
+    </row>
+    <row r="284" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F284" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="285" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="13"/>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="9"/>
-      <c r="E285" s="9"/>
+      <c r="A285" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="F285" s="15"/>
     </row>
     <row r="286" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E286" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F286" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A286" s="13"/>
+      <c r="B286" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F286" s="15"/>
     </row>
     <row r="287" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="E287" s="9" t="s">
-        <v>494</v>
-      </c>
+      <c r="A287" s="13"/>
+      <c r="B287" s="9"/>
+      <c r="C287" s="9"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
       <c r="F287" s="15"/>
     </row>
     <row r="288" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="13"/>
-      <c r="B288" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C288" s="9" t="s">
+      <c r="B288" s="9"/>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="15"/>
+    </row>
+    <row r="289" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F289" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C290" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D288" s="9"/>
-      <c r="E288" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="F288" s="15"/>
-    </row>
-    <row r="289" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="13"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="9"/>
-      <c r="E289" s="9"/>
-      <c r="F289" s="15"/>
-    </row>
-    <row r="290" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="13"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9"/>
-      <c r="E290" s="9"/>
+      <c r="D290" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>492</v>
+      </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D291" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E291" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F291" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A291" s="13"/>
+      <c r="B291" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D291" s="9"/>
+      <c r="E291" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F291" s="15"/>
     </row>
     <row r="292" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="13" t="s">
-        <v>497</v>
-      </c>
+      <c r="A292" s="13"/>
       <c r="B292" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D292" s="9" t="s">
-        <v>468</v>
-      </c>
+      <c r="D292" s="9"/>
       <c r="E292" s="9" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="F292" s="15"/>
     </row>
-    <row r="293" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="13"/>
-      <c r="B293" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D293" s="9"/>
-      <c r="E293" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="F293" s="15"/>
-    </row>
-    <row r="294" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="13"/>
-      <c r="B294" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="C294" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D294" s="9"/>
-      <c r="E294" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="F294" s="15"/>
-    </row>
-    <row r="295" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="16"/>
-      <c r="B295" s="17"/>
-      <c r="C295" s="17"/>
-      <c r="D295" s="17"/>
-      <c r="E295" s="17"/>
-      <c r="F295" s="18"/>
+    <row r="293" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="16"/>
+      <c r="B293" s="17"/>
+      <c r="C293" s="17"/>
+      <c r="D293" s="17"/>
+      <c r="E293" s="17"/>
+      <c r="F293" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
